--- a/Projet_C_Sharp/Interface Excel.xlsx
+++ b/Projet_C_Sharp/Interface Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayman\Documents\Dauphine Offline\Projet C#\Projet_C_sharp_Pricer_Structured_Poduct\Projet_C_Sharp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12869D5-079C-4939-9008-36E6B99DEF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DAC3D0-9923-4832-B088-AD66365E58DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E403B6F2-3256-482E-B553-E70ADB64458A}"/>
+    <workbookView xWindow="30360" yWindow="1215" windowWidth="23115" windowHeight="11520" xr2:uid="{E403B6F2-3256-482E-B553-E70ADB64458A}"/>
   </bookViews>
   <sheets>
     <sheet name="Interface" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="858">
   <si>
     <t>Notionnel</t>
   </si>
@@ -1902,9 +1902,6 @@
   </si>
   <si>
     <t>Funding</t>
-  </si>
-  <si>
-    <t>Reoffer</t>
   </si>
   <si>
     <t>#N/A N/A</t>
@@ -2735,7 +2732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2845,36 +2842,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3129,7 +3096,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3138,26 +3105,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3173,29 +3139,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3207,12 +3172,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4556,7 +4522,7 @@
   <dimension ref="B4:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4571,44 +4537,45 @@
     <col min="8" max="8" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="14" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="12" width="16.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="24.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="28">
         <v>10000000</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>858</v>
+      <c r="E5" s="26" t="s">
+        <v>857</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="25" t="str">
+      <c r="G5" s="24" t="str">
         <f>IF(F5="","",VLOOKUP(F5,Univers!$B$2:$D$211,2,FALSE))</f>
         <v>AF FP Equity</v>
       </c>
-      <c r="H5" s="25" t="str">
+      <c r="H5" s="24" t="str">
         <f>IF(F5="","",VLOOKUP(F5,Univers!$B$2:$D$211,3,FALSE))</f>
         <v>FR001400J770</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <f>IF(F5="","",VLOOKUP(F5,Univers!$B$2:$E$211,4,FALSE))</f>
         <v>9.4320000000000004</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="27">
         <f>IF(F5="","",VLOOKUP(F5,Univers!$B$2:$F$211,5,FALSE))</f>
         <v>43.947533322266203</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -4616,24 +4583,26 @@
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>852</v>
-      </c>
-      <c r="C7" s="34">
+      <c r="B7" s="23" t="s">
+        <v>851</v>
+      </c>
+      <c r="C7" s="32">
         <v>5</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
+      <c r="N7" s="45">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
-        <v>857</v>
+      <c r="B8" s="23" t="s">
+        <v>856</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>608</v>
@@ -4642,10 +4611,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>0.05</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -4655,12 +4624,12 @@
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="33">
         <f ca="1">TODAY()+2</f>
-        <v>45397</v>
+        <v>45405</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>610</v>
@@ -4668,16 +4637,10 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4745,22 +4708,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>556</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="25" t="s">
         <v>557</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>594</v>
       </c>
     </row>
@@ -4803,7 +4766,7 @@
         <v>383</v>
       </c>
       <c r="F3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4814,7 +4777,7 @@
         <v>385</v>
       </c>
       <c r="F4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,7 +4788,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4836,7 +4799,7 @@
         <v>387</v>
       </c>
       <c r="F6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6021,39 +5984,39 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B2" t="s">
         <v>824</v>
-      </c>
-      <c r="B2" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B3">
         <v>3.9020000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E3" t="str">
         <f>""""&amp;A3&amp;""""</f>
         <v>"1 WK"</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>850</v>
+      <c r="F3" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G3">
         <v>3.9020000000000001</v>
       </c>
       <c r="H3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I3" t="str">
         <f>D3&amp;E3&amp;F3&amp;G3/100&amp;H3</f>
@@ -6062,26 +6025,26 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B4">
         <v>3.903</v>
       </c>
       <c r="D4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E24" si="0">""""&amp;A4&amp;""""</f>
         <v>"2 WK"</v>
       </c>
-      <c r="F4" s="33" t="s">
-        <v>850</v>
+      <c r="F4" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G4">
         <v>3.903</v>
       </c>
       <c r="H4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ref="I4:I24" si="1">D4&amp;E4&amp;F4&amp;G4/100&amp;H4</f>
@@ -6090,26 +6053,26 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B5">
         <v>3.9049999999999998</v>
       </c>
       <c r="D5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>"1 MO"</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>850</v>
+      <c r="F5" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G5">
         <v>3.9049999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="1"/>
@@ -6118,26 +6081,26 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B6">
         <v>3.8929999999999998</v>
       </c>
       <c r="D6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>"2 MO"</v>
       </c>
-      <c r="F6" s="33" t="s">
-        <v>850</v>
+      <c r="F6" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G6">
         <v>3.8929999999999998</v>
       </c>
       <c r="H6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="1"/>
@@ -6146,26 +6109,26 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B7">
         <v>3.83</v>
       </c>
       <c r="D7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>"3 MO"</v>
       </c>
-      <c r="F7" s="33" t="s">
-        <v>850</v>
+      <c r="F7" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G7">
         <v>3.83</v>
       </c>
       <c r="H7" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
@@ -6174,26 +6137,26 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B8">
         <v>3.68</v>
       </c>
       <c r="D8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>"6 MO"</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>850</v>
+      <c r="F8" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G8">
         <v>3.68</v>
       </c>
       <c r="H8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
@@ -6202,26 +6165,26 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B9">
         <v>3.528</v>
       </c>
       <c r="D9" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>"9 MO"</v>
       </c>
-      <c r="F9" s="33" t="s">
-        <v>850</v>
+      <c r="F9" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G9">
         <v>3.528</v>
       </c>
       <c r="H9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
@@ -6230,26 +6193,26 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B10">
         <v>3.3940000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>"12 MO"</v>
       </c>
-      <c r="F10" s="33" t="s">
-        <v>850</v>
+      <c r="F10" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G10">
         <v>3.3940000000000001</v>
       </c>
       <c r="H10" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
@@ -6258,26 +6221,26 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B11">
         <v>3.1349999999999998</v>
       </c>
       <c r="D11" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>"18 MO"</v>
       </c>
-      <c r="F11" s="33" t="s">
-        <v>850</v>
+      <c r="F11" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G11">
         <v>3.1349999999999998</v>
       </c>
       <c r="H11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
@@ -6286,26 +6249,26 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B12">
         <v>2.9609999999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>"2 YR"</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>850</v>
+      <c r="F12" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G12">
         <v>2.9609999999999999</v>
       </c>
       <c r="H12" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
@@ -6314,26 +6277,26 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B13">
         <v>2.734</v>
       </c>
       <c r="D13" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>"3 YR"</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>850</v>
+      <c r="F13" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G13">
         <v>2.734</v>
       </c>
       <c r="H13" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
@@ -6342,26 +6305,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B14">
         <v>2.6030000000000002</v>
       </c>
       <c r="D14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>"4 YR"</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>850</v>
+      <c r="F14" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G14">
         <v>2.6030000000000002</v>
       </c>
       <c r="H14" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
@@ -6370,26 +6333,26 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B15">
         <v>2.5339999999999998</v>
       </c>
       <c r="D15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>"5 YR"</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>850</v>
+      <c r="F15" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G15">
         <v>2.5339999999999998</v>
       </c>
       <c r="H15" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
@@ -6398,26 +6361,26 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B16">
         <v>2.496</v>
       </c>
       <c r="D16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>"6 YR"</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>850</v>
+      <c r="F16" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G16">
         <v>2.496</v>
       </c>
       <c r="H16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
@@ -6426,26 +6389,26 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B17">
         <v>2.484</v>
       </c>
       <c r="D17" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>"7 YR"</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>850</v>
+      <c r="F17" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G17">
         <v>2.484</v>
       </c>
       <c r="H17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
@@ -6454,26 +6417,26 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B18">
         <v>2.4849999999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>"8 YR"</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>850</v>
+      <c r="F18" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G18">
         <v>2.4849999999999999</v>
       </c>
       <c r="H18" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
@@ -6482,26 +6445,26 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B19">
         <v>2.492</v>
       </c>
       <c r="D19" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>"9 YR"</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>850</v>
+      <c r="F19" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G19">
         <v>2.492</v>
       </c>
       <c r="H19" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
@@ -6510,26 +6473,26 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B20">
         <v>2.5099999999999998</v>
       </c>
       <c r="D20" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>"10 YR"</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>850</v>
+      <c r="F20" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G20">
         <v>2.5099999999999998</v>
       </c>
       <c r="H20" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
@@ -6538,26 +6501,26 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B21">
         <v>2.544</v>
       </c>
       <c r="D21" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>"12 YR"</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>850</v>
+      <c r="F21" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G21">
         <v>2.544</v>
       </c>
       <c r="H21" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
@@ -6566,26 +6529,26 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B22">
         <v>2.5880000000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>"15 YR"</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>850</v>
+      <c r="F22" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G22">
         <v>2.5880000000000001</v>
       </c>
       <c r="H22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
@@ -6594,26 +6557,26 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B23">
         <v>2.5630000000000002</v>
       </c>
       <c r="D23" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>"20 YR"</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>850</v>
+      <c r="F23" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G23">
         <v>2.5630000000000002</v>
       </c>
       <c r="H23" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
@@ -6622,26 +6585,26 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B24">
         <v>2.4020000000000001</v>
       </c>
       <c r="D24" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>"30 YR"</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>850</v>
+      <c r="F24" s="31" t="s">
+        <v>849</v>
       </c>
       <c r="G24">
         <v>2.4020000000000001</v>
       </c>
       <c r="H24" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
@@ -6661,7 +6624,7 @@
   <dimension ref="A1:L211"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6682,54 +6645,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>818</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>817</v>
+      </c>
+      <c r="H1" s="30" t="s">
         <v>819</v>
       </c>
-      <c r="G1" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="K1" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>817</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E2" s="6">
@@ -6758,8 +6721,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -6794,8 +6757,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -6830,8 +6793,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -6866,8 +6829,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -6902,8 +6865,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -6938,8 +6901,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -6974,8 +6937,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -7010,8 +6973,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7046,8 +7009,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -7082,8 +7045,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -7118,8 +7081,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -7154,8 +7117,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -7190,8 +7153,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -7226,8 +7189,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -7262,8 +7225,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -7298,8 +7261,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -7334,8 +7297,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -7370,8 +7333,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -7406,8 +7369,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -7442,8 +7405,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -7478,8 +7441,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -7514,8 +7477,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -7550,8 +7513,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -7586,8 +7549,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -7622,8 +7585,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -7658,8 +7621,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -7694,8 +7657,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -7730,8 +7693,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -7766,8 +7729,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -7802,8 +7765,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -7838,12 +7801,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>340</v>
@@ -7874,8 +7837,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -7910,8 +7873,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -7946,8 +7909,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -7982,8 +7945,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -8018,8 +7981,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -8054,8 +8017,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -8090,8 +8053,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -8126,8 +8089,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -8162,17 +8125,17 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E42" s="6">
         <v>55.46</v>
@@ -8200,15 +8163,15 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E43" s="6">
         <v>195.3</v>
@@ -8236,15 +8199,15 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E44" s="6">
         <v>1421.6</v>
@@ -8272,15 +8235,15 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E45" s="6">
         <v>26.63</v>
@@ -8308,8 +8271,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -8344,8 +8307,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -8380,15 +8343,15 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E48" s="6">
         <v>261.7</v>
@@ -8416,15 +8379,15 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E49" s="6">
         <v>907.5</v>
@@ -8452,8 +8415,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -8488,15 +8451,15 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E51" s="6">
         <v>10.050000000000001</v>
@@ -8524,15 +8487,15 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E52" s="6">
         <v>4.4480000000000004</v>
@@ -8560,15 +8523,15 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E53" s="6">
         <v>51.41</v>
@@ -8596,15 +8559,15 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E54" s="6">
         <v>26.905000000000001</v>
@@ -8632,15 +8595,15 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E55" s="6">
         <v>109</v>
@@ -8668,8 +8631,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -8704,8 +8667,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -8740,15 +8703,15 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E58" s="6">
         <v>189</v>
@@ -8776,15 +8739,15 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="E59" s="6">
         <v>38.65</v>
@@ -8812,15 +8775,15 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E60" s="6">
         <v>21.06</v>
@@ -8848,15 +8811,15 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E61" s="6">
         <v>5.8730000000000002</v>
@@ -8884,15 +8847,15 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E62" s="6">
         <v>15.73</v>
@@ -8920,8 +8883,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -8956,15 +8919,15 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E64" s="6">
         <v>15220</v>
@@ -8992,8 +8955,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39"/>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -9028,15 +8991,15 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E66" s="6">
         <v>11.25</v>
@@ -9064,15 +9027,15 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E67" s="6">
         <v>43.66</v>
@@ -9100,15 +9063,15 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E68" s="6">
         <v>31.965</v>
@@ -9136,15 +9099,15 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E69" s="6">
         <v>14.946</v>
@@ -9172,15 +9135,15 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E70" s="6">
         <v>3.29</v>
@@ -9208,8 +9171,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -9244,15 +9207,15 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E72" s="6">
         <v>44.09</v>
@@ -9280,8 +9243,8 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -9316,8 +9279,8 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -9352,15 +9315,15 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="15" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E75" s="6">
         <v>75.040000000000006</v>
@@ -9388,15 +9351,15 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="15" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E76" s="6">
         <v>414.2</v>
@@ -9424,8 +9387,8 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -9460,15 +9423,15 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="15" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E78" s="6">
         <v>19.114999999999998</v>
@@ -9496,15 +9459,15 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="15" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E79" s="6">
         <v>29.43</v>
@@ -9532,8 +9495,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="15" t="s">
+      <c r="A80" s="37"/>
+      <c r="B80" s="14" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -9568,8 +9531,8 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="14" t="s">
         <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -9604,15 +9567,15 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="37"/>
+      <c r="B82" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E82" s="6">
         <v>169.78</v>
@@ -9640,8 +9603,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -9676,15 +9639,15 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="15" t="s">
+      <c r="A84" s="37"/>
+      <c r="B84" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E84" s="6">
         <v>171.66</v>
@@ -9712,12 +9675,12 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>340</v>
@@ -9748,8 +9711,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="15" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -9784,8 +9747,8 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="37"/>
+      <c r="B87" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -9820,15 +9783,15 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="37"/>
+      <c r="B88" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E88" s="6">
         <v>145.30000000000001</v>
@@ -9856,15 +9819,15 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E89" s="6">
         <v>25.1</v>
@@ -9892,10 +9855,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -9930,12 +9893,12 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39"/>
-      <c r="B91" s="15" t="s">
+      <c r="A91" s="37"/>
+      <c r="B91" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>167</v>
@@ -9966,12 +9929,12 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="15" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>169</v>
@@ -10002,8 +9965,8 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="15" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -10038,8 +10001,8 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="15" t="s">
+      <c r="A94" s="37"/>
+      <c r="B94" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -10074,12 +10037,12 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="39"/>
-      <c r="B95" s="15" t="s">
+      <c r="A95" s="37"/>
+      <c r="B95" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>175</v>
@@ -10110,12 +10073,12 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="15" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>177</v>
@@ -10146,12 +10109,12 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="14" t="s">
         <v>178</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>179</v>
@@ -10182,12 +10145,12 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
-      <c r="B98" s="15" t="s">
+      <c r="A98" s="37"/>
+      <c r="B98" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>181</v>
@@ -10218,12 +10181,12 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="37"/>
+      <c r="B99" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>183</v>
@@ -10254,8 +10217,8 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="14" t="s">
         <v>186</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -10290,12 +10253,12 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="39"/>
-      <c r="B101" s="15" t="s">
+      <c r="A101" s="37"/>
+      <c r="B101" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>189</v>
@@ -10304,34 +10267,34 @@
         <v>76.400000000000006</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
-      <c r="B102" s="15" t="s">
+      <c r="A102" s="37"/>
+      <c r="B102" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>191</v>
@@ -10362,12 +10325,12 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
-      <c r="B103" s="15" t="s">
+      <c r="A103" s="37"/>
+      <c r="B103" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>193</v>
@@ -10398,8 +10361,8 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39"/>
-      <c r="B104" s="15" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -10434,12 +10397,12 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="39"/>
-      <c r="B105" s="15" t="s">
+      <c r="A105" s="37"/>
+      <c r="B105" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>196</v>
@@ -10448,34 +10411,34 @@
         <v>13.42</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="39"/>
-      <c r="B106" s="15" t="s">
+      <c r="A106" s="37"/>
+      <c r="B106" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>198</v>
@@ -10506,12 +10469,12 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="15" t="s">
+      <c r="A107" s="37"/>
+      <c r="B107" s="14" t="s">
         <v>199</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>200</v>
@@ -10542,8 +10505,8 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="37"/>
+      <c r="B108" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -10578,12 +10541,12 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="37"/>
+      <c r="B109" s="14" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>204</v>
@@ -10614,8 +10577,8 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
-      <c r="B110" s="15" t="s">
+      <c r="A110" s="37"/>
+      <c r="B110" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -10650,12 +10613,12 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="15" t="s">
+      <c r="A111" s="37"/>
+      <c r="B111" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>207</v>
@@ -10686,8 +10649,8 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="39"/>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="37"/>
+      <c r="B112" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -10722,12 +10685,12 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="39"/>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="37"/>
+      <c r="B113" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>210</v>
@@ -10736,30 +10699,30 @@
         <v>15.92</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
-      <c r="B114" s="15" t="s">
+      <c r="A114" s="37"/>
+      <c r="B114" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -10794,12 +10757,12 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="39"/>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="37"/>
+      <c r="B115" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>213</v>
@@ -10830,12 +10793,12 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="37"/>
+      <c r="B116" s="14" t="s">
         <v>214</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>215</v>
@@ -10866,12 +10829,12 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="37"/>
+      <c r="B117" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>217</v>
@@ -10902,8 +10865,8 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="39"/>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="37"/>
+      <c r="B118" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -10938,8 +10901,8 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="39"/>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="37"/>
+      <c r="B119" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -10974,12 +10937,12 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="37"/>
+      <c r="B120" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>221</v>
@@ -11010,8 +10973,8 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="39"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="37"/>
+      <c r="B121" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -11046,12 +11009,12 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="37"/>
+      <c r="B122" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>224</v>
@@ -11060,30 +11023,30 @@
         <v>4.5780000000000003</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="37"/>
+      <c r="B123" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -11118,12 +11081,12 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="37"/>
+      <c r="B124" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>227</v>
@@ -11154,12 +11117,12 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39"/>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="37"/>
+      <c r="B125" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>229</v>
@@ -11190,12 +11153,12 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="37"/>
+      <c r="B126" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>231</v>
@@ -11226,8 +11189,8 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="39"/>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="37"/>
+      <c r="B127" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -11262,12 +11225,12 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39"/>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="37"/>
+      <c r="B128" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>234</v>
@@ -11298,8 +11261,8 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39"/>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="37"/>
+      <c r="B129" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -11334,12 +11297,12 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="39"/>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="37"/>
+      <c r="B130" s="14" t="s">
         <v>236</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>237</v>
@@ -11370,12 +11333,12 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="39"/>
-      <c r="B131" s="15" t="s">
+      <c r="A131" s="37"/>
+      <c r="B131" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>239</v>
@@ -11406,8 +11369,8 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="39"/>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="37"/>
+      <c r="B132" s="14" t="s">
         <v>240</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -11442,12 +11405,12 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39"/>
-      <c r="B133" s="15" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="14" t="s">
         <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>243</v>
@@ -11478,12 +11441,12 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39"/>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="37"/>
+      <c r="B134" s="14" t="s">
         <v>244</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>245</v>
@@ -11514,12 +11477,12 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="39"/>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="37"/>
+      <c r="B135" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>247</v>
@@ -11550,12 +11513,12 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="39"/>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="37"/>
+      <c r="B136" s="14" t="s">
         <v>248</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>249</v>
@@ -11586,12 +11549,12 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="39"/>
-      <c r="B137" s="15" t="s">
+      <c r="A137" s="37"/>
+      <c r="B137" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>251</v>
@@ -11622,12 +11585,12 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="39"/>
-      <c r="B138" s="15" t="s">
+      <c r="A138" s="37"/>
+      <c r="B138" s="14" t="s">
         <v>252</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>253</v>
@@ -11658,12 +11621,12 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="39"/>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="37"/>
+      <c r="B139" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>255</v>
@@ -11694,8 +11657,8 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="39"/>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="37"/>
+      <c r="B140" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -11730,12 +11693,12 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="39"/>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="37"/>
+      <c r="B141" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>258</v>
@@ -11766,12 +11729,12 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="39"/>
-      <c r="B142" s="15" t="s">
+      <c r="A142" s="37"/>
+      <c r="B142" s="14" t="s">
         <v>259</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>260</v>
@@ -11780,34 +11743,34 @@
         <v>332.5</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="39"/>
-      <c r="B143" s="15" t="s">
+      <c r="A143" s="37"/>
+      <c r="B143" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>262</v>
@@ -11838,12 +11801,12 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="39"/>
-      <c r="B144" s="15" t="s">
+      <c r="A144" s="37"/>
+      <c r="B144" s="14" t="s">
         <v>263</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>264</v>
@@ -11852,34 +11815,34 @@
         <v>47.75</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="39"/>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="37"/>
+      <c r="B145" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>266</v>
@@ -11910,12 +11873,12 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="39"/>
-      <c r="B146" s="15" t="s">
+      <c r="A146" s="37"/>
+      <c r="B146" s="14" t="s">
         <v>267</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>268</v>
@@ -11946,12 +11909,12 @@
       </c>
     </row>
     <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="39"/>
-      <c r="B147" s="15" t="s">
+      <c r="A147" s="37"/>
+      <c r="B147" s="14" t="s">
         <v>269</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>270</v>
@@ -11982,8 +11945,8 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="39"/>
-      <c r="B148" s="15" t="s">
+      <c r="A148" s="37"/>
+      <c r="B148" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -12018,12 +11981,12 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="39"/>
-      <c r="B149" s="15" t="s">
+      <c r="A149" s="37"/>
+      <c r="B149" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>273</v>
@@ -12054,8 +12017,8 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="39"/>
-      <c r="B150" s="15" t="s">
+      <c r="A150" s="37"/>
+      <c r="B150" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -12090,12 +12053,12 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="39"/>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="37"/>
+      <c r="B151" s="14" t="s">
         <v>275</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>276</v>
@@ -12104,30 +12067,30 @@
         <v>34</v>
       </c>
       <c r="F151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="39"/>
-      <c r="B152" s="15" t="s">
+      <c r="A152" s="37"/>
+      <c r="B152" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -12162,8 +12125,8 @@
       </c>
     </row>
     <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="39"/>
-      <c r="B153" s="15" t="s">
+      <c r="A153" s="37"/>
+      <c r="B153" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -12198,12 +12161,12 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39"/>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="37"/>
+      <c r="B154" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>280</v>
@@ -12212,34 +12175,34 @@
         <v>6.5149999999999997</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="39"/>
-      <c r="B155" s="15" t="s">
+      <c r="A155" s="37"/>
+      <c r="B155" s="14" t="s">
         <v>281</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>282</v>
@@ -12248,34 +12211,34 @@
         <v>10.45</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
-      <c r="B156" s="15" t="s">
+      <c r="A156" s="37"/>
+      <c r="B156" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>284</v>
@@ -12284,34 +12247,34 @@
         <v>35</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="39"/>
-      <c r="B157" s="15" t="s">
+      <c r="A157" s="37"/>
+      <c r="B157" s="14" t="s">
         <v>285</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>286</v>
@@ -12342,8 +12305,8 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="39"/>
-      <c r="B158" s="15" t="s">
+      <c r="A158" s="37"/>
+      <c r="B158" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -12378,12 +12341,12 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="39"/>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="37"/>
+      <c r="B159" s="14" t="s">
         <v>288</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>289</v>
@@ -12414,12 +12377,12 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="39"/>
-      <c r="B160" s="15" t="s">
+      <c r="A160" s="37"/>
+      <c r="B160" s="14" t="s">
         <v>290</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>291</v>
@@ -12450,12 +12413,12 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="39"/>
-      <c r="B161" s="15" t="s">
+      <c r="A161" s="37"/>
+      <c r="B161" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>293</v>
@@ -12486,8 +12449,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="39"/>
-      <c r="B162" s="15" t="s">
+      <c r="A162" s="37"/>
+      <c r="B162" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -12522,12 +12485,12 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="39"/>
-      <c r="B163" s="15" t="s">
+      <c r="A163" s="37"/>
+      <c r="B163" s="14" t="s">
         <v>295</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>296</v>
@@ -12536,30 +12499,30 @@
         <v>10.928000000000001</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39"/>
-      <c r="B164" s="15" t="s">
+      <c r="A164" s="37"/>
+      <c r="B164" s="14" t="s">
         <v>297</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -12594,12 +12557,12 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="39"/>
-      <c r="B165" s="15" t="s">
+      <c r="A165" s="37"/>
+      <c r="B165" s="14" t="s">
         <v>299</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>300</v>
@@ -12630,12 +12593,12 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="39"/>
-      <c r="B166" s="15" t="s">
+      <c r="A166" s="37"/>
+      <c r="B166" s="14" t="s">
         <v>301</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>302</v>
@@ -12666,8 +12629,8 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="39"/>
-      <c r="B167" s="15" t="s">
+      <c r="A167" s="37"/>
+      <c r="B167" s="14" t="s">
         <v>303</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -12702,12 +12665,12 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="39"/>
-      <c r="B168" s="15" t="s">
+      <c r="A168" s="37"/>
+      <c r="B168" s="14" t="s">
         <v>305</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>306</v>
@@ -12738,8 +12701,8 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="39"/>
-      <c r="B169" s="15" t="s">
+      <c r="A169" s="37"/>
+      <c r="B169" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -12774,12 +12737,12 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="39"/>
-      <c r="B170" s="15" t="s">
+      <c r="A170" s="37"/>
+      <c r="B170" s="14" t="s">
         <v>308</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>309</v>
@@ -12810,12 +12773,12 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="39"/>
-      <c r="B171" s="15" t="s">
+      <c r="A171" s="37"/>
+      <c r="B171" s="14" t="s">
         <v>310</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>311</v>
@@ -12846,12 +12809,12 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="39"/>
-      <c r="B172" s="15" t="s">
+      <c r="A172" s="37"/>
+      <c r="B172" s="14" t="s">
         <v>312</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>313</v>
@@ -12882,8 +12845,8 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="39"/>
-      <c r="B173" s="15" t="s">
+      <c r="A173" s="37"/>
+      <c r="B173" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -12918,8 +12881,8 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="39"/>
-      <c r="B174" s="15" t="s">
+      <c r="A174" s="37"/>
+      <c r="B174" s="14" t="s">
         <v>315</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -12954,8 +12917,8 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="39"/>
-      <c r="B175" s="15" t="s">
+      <c r="A175" s="37"/>
+      <c r="B175" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -12990,12 +12953,12 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
-      <c r="B176" s="15" t="s">
+      <c r="A176" s="37"/>
+      <c r="B176" s="14" t="s">
         <v>318</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>319</v>
@@ -13026,8 +12989,8 @@
       </c>
     </row>
     <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
-      <c r="B177" s="15" t="s">
+      <c r="A177" s="37"/>
+      <c r="B177" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -13062,12 +13025,12 @@
       </c>
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
-      <c r="B178" s="15" t="s">
+      <c r="A178" s="37"/>
+      <c r="B178" s="14" t="s">
         <v>321</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>322</v>
@@ -13098,12 +13061,12 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
-      <c r="B179" s="15" t="s">
+      <c r="A179" s="37"/>
+      <c r="B179" s="14" t="s">
         <v>323</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>324</v>
@@ -13134,8 +13097,8 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
-      <c r="B180" s="15" t="s">
+      <c r="A180" s="37"/>
+      <c r="B180" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -13170,12 +13133,12 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="39"/>
-      <c r="B181" s="15" t="s">
+      <c r="A181" s="37"/>
+      <c r="B181" s="14" t="s">
         <v>326</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>327</v>
@@ -13206,12 +13169,12 @@
       </c>
     </row>
     <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="39"/>
-      <c r="B182" s="15" t="s">
+      <c r="A182" s="37"/>
+      <c r="B182" s="14" t="s">
         <v>328</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>329</v>
@@ -13242,12 +13205,12 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="39"/>
-      <c r="B183" s="15" t="s">
+      <c r="A183" s="37"/>
+      <c r="B183" s="14" t="s">
         <v>330</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>331</v>
@@ -13256,70 +13219,70 @@
         <v>1.9259999999999999</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="39"/>
-      <c r="B184" s="15" t="s">
+      <c r="A184" s="37"/>
+      <c r="B184" s="14" t="s">
         <v>332</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>333</v>
       </c>
       <c r="E184" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="F184" s="6" t="s">
-        <v>613</v>
-      </c>
       <c r="G184" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H184" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="39"/>
-      <c r="B185" s="15" t="s">
+      <c r="A185" s="37"/>
+      <c r="B185" s="14" t="s">
         <v>336</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>337</v>
@@ -13350,12 +13313,12 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="39"/>
-      <c r="B186" s="15" t="s">
+      <c r="A186" s="37"/>
+      <c r="B186" s="14" t="s">
         <v>338</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>339</v>
@@ -13386,12 +13349,12 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
-      <c r="B187" s="15" t="s">
+      <c r="A187" s="37"/>
+      <c r="B187" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>340</v>
@@ -13422,8 +13385,8 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="39"/>
-      <c r="B188" s="15" t="s">
+      <c r="A188" s="37"/>
+      <c r="B188" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -13458,12 +13421,12 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="39"/>
-      <c r="B189" s="15" t="s">
+      <c r="A189" s="37"/>
+      <c r="B189" s="14" t="s">
         <v>342</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>343</v>
@@ -13494,8 +13457,8 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="39"/>
-      <c r="B190" s="15" t="s">
+      <c r="A190" s="37"/>
+      <c r="B190" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -13530,12 +13493,12 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
-      <c r="B191" s="15" t="s">
+      <c r="A191" s="37"/>
+      <c r="B191" s="14" t="s">
         <v>345</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>346</v>
@@ -13566,8 +13529,8 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
-      <c r="B192" s="15" t="s">
+      <c r="A192" s="37"/>
+      <c r="B192" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -13602,8 +13565,8 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="39"/>
-      <c r="B193" s="15" t="s">
+      <c r="A193" s="37"/>
+      <c r="B193" s="14" t="s">
         <v>348</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -13638,12 +13601,12 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="39"/>
-      <c r="B194" s="15" t="s">
+      <c r="A194" s="37"/>
+      <c r="B194" s="14" t="s">
         <v>350</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>351</v>
@@ -13674,12 +13637,12 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="39"/>
-      <c r="B195" s="15" t="s">
+      <c r="A195" s="37"/>
+      <c r="B195" s="14" t="s">
         <v>352</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>353</v>
@@ -13710,8 +13673,8 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="39"/>
-      <c r="B196" s="15" t="s">
+      <c r="A196" s="37"/>
+      <c r="B196" s="14" t="s">
         <v>354</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -13746,12 +13709,12 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="39"/>
-      <c r="B197" s="15" t="s">
+      <c r="A197" s="37"/>
+      <c r="B197" s="14" t="s">
         <v>356</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>357</v>
@@ -13782,12 +13745,12 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="39"/>
-      <c r="B198" s="15" t="s">
+      <c r="A198" s="37"/>
+      <c r="B198" s="14" t="s">
         <v>358</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>359</v>
@@ -13818,12 +13781,12 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="39"/>
-      <c r="B199" s="15" t="s">
+      <c r="A199" s="37"/>
+      <c r="B199" s="14" t="s">
         <v>360</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>361</v>
@@ -13854,8 +13817,8 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="39"/>
-      <c r="B200" s="15" t="s">
+      <c r="A200" s="37"/>
+      <c r="B200" s="14" t="s">
         <v>362</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -13890,12 +13853,12 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="39"/>
-      <c r="B201" s="15" t="s">
+      <c r="A201" s="37"/>
+      <c r="B201" s="14" t="s">
         <v>364</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>365</v>
@@ -13926,12 +13889,12 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="39"/>
-      <c r="B202" s="15" t="s">
+      <c r="A202" s="37"/>
+      <c r="B202" s="14" t="s">
         <v>366</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>367</v>
@@ -13940,30 +13903,30 @@
         <v>36.4</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="39"/>
-      <c r="B203" s="15" t="s">
+      <c r="A203" s="37"/>
+      <c r="B203" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -13998,12 +13961,12 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="39"/>
-      <c r="B204" s="15" t="s">
+      <c r="A204" s="37"/>
+      <c r="B204" s="14" t="s">
         <v>369</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>370</v>
@@ -14012,30 +13975,30 @@
         <v>365</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="39"/>
-      <c r="B205" s="15" t="s">
+      <c r="A205" s="37"/>
+      <c r="B205" s="14" t="s">
         <v>371</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -14070,12 +14033,12 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="39"/>
-      <c r="B206" s="15" t="s">
+      <c r="A206" s="37"/>
+      <c r="B206" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>374</v>
@@ -14084,34 +14047,34 @@
         <v>136.6</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="207" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="39"/>
-      <c r="B207" s="15" t="s">
+      <c r="A207" s="37"/>
+      <c r="B207" s="14" t="s">
         <v>375</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>376</v>
@@ -14142,12 +14105,12 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="39"/>
-      <c r="B208" s="15" t="s">
+      <c r="A208" s="37"/>
+      <c r="B208" s="14" t="s">
         <v>377</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>378</v>
@@ -14178,12 +14141,12 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="40"/>
-      <c r="B209" s="17" t="s">
+      <c r="A209" s="38"/>
+      <c r="B209" s="16" t="s">
         <v>379</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>380</v>
@@ -14192,33 +14155,33 @@
         <v>7.03</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="36"/>
-      <c r="B210" s="10" t="s">
+      <c r="A210" s="34"/>
+      <c r="B210" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -14250,14 +14213,14 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="37"/>
-      <c r="B211" s="14" t="s">
+      <c r="A211" s="35"/>
+      <c r="B211" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C211" s="14" t="s">
+      <c r="C211" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="D211" s="12" t="s">
+      <c r="D211" s="11" t="s">
         <v>583</v>
       </c>
       <c r="E211" s="6">
@@ -14321,54 +14284,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>547</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>650</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="30" t="s">
+        <v>649</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>816</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>817</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="H1" s="30" t="s">
         <v>818</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="I1" s="30" t="s">
+        <v>821</v>
+      </c>
+      <c r="J1" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>819</v>
       </c>
-      <c r="I1" s="32" t="s">
-        <v>822</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="L1" s="32" t="s">
-        <v>821</v>
-      </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E2" s="6" t="e" cm="1">
@@ -14405,8 +14368,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -14449,8 +14412,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -14493,8 +14456,8 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="37"/>
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -14537,8 +14500,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -14581,8 +14544,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -14625,8 +14588,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -14669,8 +14632,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="15" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -14713,8 +14676,8 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -14757,8 +14720,8 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -14801,8 +14764,8 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -14845,8 +14808,8 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -14889,8 +14852,8 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="37"/>
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -14933,8 +14896,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -14977,8 +14940,8 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="37"/>
+      <c r="B16" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -15021,8 +14984,8 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="37"/>
+      <c r="B17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -15065,8 +15028,8 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="15" t="s">
+      <c r="A18" s="37"/>
+      <c r="B18" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -15109,8 +15072,8 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -15153,8 +15116,8 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="37"/>
+      <c r="B20" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -15197,8 +15160,8 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="15" t="s">
+      <c r="A21" s="37"/>
+      <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -15241,8 +15204,8 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -15285,8 +15248,8 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="37"/>
+      <c r="B23" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -15329,8 +15292,8 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="15" t="s">
+      <c r="A24" s="37"/>
+      <c r="B24" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -15373,8 +15336,8 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="37"/>
+      <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -15417,8 +15380,8 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="15" t="s">
+      <c r="A26" s="37"/>
+      <c r="B26" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -15461,8 +15424,8 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="15" t="s">
+      <c r="A27" s="37"/>
+      <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -15505,8 +15468,8 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="15" t="s">
+      <c r="A28" s="37"/>
+      <c r="B28" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -15549,8 +15512,8 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="37"/>
+      <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -15593,8 +15556,8 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39"/>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="37"/>
+      <c r="B30" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -15637,8 +15600,8 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="37"/>
+      <c r="B31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -15681,8 +15644,8 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -15725,12 +15688,12 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="15" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>340</v>
@@ -15769,8 +15732,8 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="37"/>
+      <c r="B34" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -15813,8 +15776,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="15" t="s">
+      <c r="A35" s="37"/>
+      <c r="B35" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -15857,8 +15820,8 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="15" t="s">
+      <c r="A36" s="37"/>
+      <c r="B36" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -15901,8 +15864,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="37"/>
+      <c r="B37" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -15945,8 +15908,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="15" t="s">
+      <c r="A38" s="37"/>
+      <c r="B38" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -15989,8 +15952,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="15" t="s">
+      <c r="A39" s="37"/>
+      <c r="B39" s="14" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -16033,8 +15996,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="15" t="s">
+      <c r="A40" s="37"/>
+      <c r="B40" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -16077,8 +16040,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="15" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -16121,17 +16084,17 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E42" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E42" ca="1">_xll.BDP(C42,$E$1)</f>
@@ -16167,15 +16130,15 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="15" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="14" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E43" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E43" ca="1">_xll.BDP(C43,$E$1)</f>
@@ -16211,15 +16174,15 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E44" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E44" ca="1">_xll.BDP(C44,$E$1)</f>
@@ -16255,15 +16218,15 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="15" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>136</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E45" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E45" ca="1">_xll.BDP(C45,$E$1)</f>
@@ -16299,8 +16262,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="15" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -16343,8 +16306,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="15" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -16387,15 +16350,15 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E48" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E48" ca="1">_xll.BDP(C48,$E$1)</f>
@@ -16431,15 +16394,15 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="15" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E49" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">_xll.BDP(C49,$E$1)</f>
@@ -16475,8 +16438,8 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="15" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -16519,15 +16482,15 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="14" t="s">
         <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E51" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E51" ca="1">_xll.BDP(C51,$E$1)</f>
@@ -16563,15 +16526,15 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="14" t="s">
         <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E52" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E52" ca="1">_xll.BDP(C52,$E$1)</f>
@@ -16607,15 +16570,15 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>141</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E53" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E53" ca="1">_xll.BDP(C53,$E$1)</f>
@@ -16651,15 +16614,15 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="15" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E54" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E54" ca="1">_xll.BDP(C54,$E$1)</f>
@@ -16695,15 +16658,15 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="15" t="s">
+      <c r="A55" s="37"/>
+      <c r="B55" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E55" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E55" ca="1">_xll.BDP(C55,$E$1)</f>
@@ -16739,8 +16702,8 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="15" t="s">
+      <c r="A56" s="37"/>
+      <c r="B56" s="14" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
@@ -16783,8 +16746,8 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="15" t="s">
+      <c r="A57" s="37"/>
+      <c r="B57" s="14" t="s">
         <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
@@ -16827,15 +16790,15 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="39"/>
-      <c r="B58" s="15" t="s">
+      <c r="A58" s="37"/>
+      <c r="B58" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>144</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E58" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E58" ca="1">_xll.BDP(C58,$E$1)</f>
@@ -16871,15 +16834,15 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="37"/>
+      <c r="B59" s="14" t="s">
         <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="E59" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E59" ca="1">_xll.BDP(C59,$E$1)</f>
@@ -16915,15 +16878,15 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="15" t="s">
+      <c r="A60" s="37"/>
+      <c r="B60" s="14" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E60" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E60" ca="1">_xll.BDP(C60,$E$1)</f>
@@ -16959,15 +16922,15 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="15" t="s">
+      <c r="A61" s="37"/>
+      <c r="B61" s="14" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>146</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E61" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E61" ca="1">_xll.BDP(C61,$E$1)</f>
@@ -17003,15 +16966,15 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="15" t="s">
+      <c r="A62" s="37"/>
+      <c r="B62" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>147</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E62" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E62" ca="1">_xll.BDP(C62,$E$1)</f>
@@ -17047,8 +17010,8 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
-      <c r="B63" s="15" t="s">
+      <c r="A63" s="37"/>
+      <c r="B63" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -17091,15 +17054,15 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="15" t="s">
+      <c r="A64" s="37"/>
+      <c r="B64" s="14" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>148</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E64" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E64" ca="1">_xll.BDP(C64,$E$1)</f>
@@ -17135,8 +17098,8 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="39"/>
-      <c r="B65" s="15" t="s">
+      <c r="A65" s="37"/>
+      <c r="B65" s="14" t="s">
         <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
@@ -17179,15 +17142,15 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="39"/>
-      <c r="B66" s="15" t="s">
+      <c r="A66" s="37"/>
+      <c r="B66" s="14" t="s">
         <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>149</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E66" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E66" ca="1">_xll.BDP(C66,$E$1)</f>
@@ -17223,15 +17186,15 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
-      <c r="B67" s="15" t="s">
+      <c r="A67" s="37"/>
+      <c r="B67" s="14" t="s">
         <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>150</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E67" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E67" ca="1">_xll.BDP(C67,$E$1)</f>
@@ -17267,15 +17230,15 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
-      <c r="B68" s="15" t="s">
+      <c r="A68" s="37"/>
+      <c r="B68" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E68" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E68" ca="1">_xll.BDP(C68,$E$1)</f>
@@ -17311,15 +17274,15 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
-      <c r="B69" s="15" t="s">
+      <c r="A69" s="37"/>
+      <c r="B69" s="14" t="s">
         <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>152</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E69" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E69" ca="1">_xll.BDP(C69,$E$1)</f>
@@ -17355,15 +17318,15 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="15" t="s">
+      <c r="A70" s="37"/>
+      <c r="B70" s="14" t="s">
         <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E70" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E70" ca="1">_xll.BDP(C70,$E$1)</f>
@@ -17399,8 +17362,8 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="15" t="s">
+      <c r="A71" s="37"/>
+      <c r="B71" s="14" t="s">
         <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -17443,15 +17406,15 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="37"/>
+      <c r="B72" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E72" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E72" ca="1">_xll.BDP(C72,$E$1)</f>
@@ -17487,8 +17450,8 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="15" t="s">
+      <c r="A73" s="37"/>
+      <c r="B73" s="14" t="s">
         <v>117</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -17531,8 +17494,8 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
-      <c r="B74" s="15" t="s">
+      <c r="A74" s="37"/>
+      <c r="B74" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C74" s="2" t="s">
@@ -17575,15 +17538,15 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="15" t="s">
+      <c r="A75" s="37"/>
+      <c r="B75" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E75" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E75" ca="1">_xll.BDP(C75,$E$1)</f>
@@ -17619,15 +17582,15 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="15" t="s">
+      <c r="A76" s="37"/>
+      <c r="B76" s="14" t="s">
         <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>155</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E76" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E76" ca="1">_xll.BDP(C76,$E$1)</f>
@@ -17663,8 +17626,8 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="15" t="s">
+      <c r="A77" s="37"/>
+      <c r="B77" s="14" t="s">
         <v>121</v>
       </c>
       <c r="C77" s="2" t="s">
@@ -17707,15 +17670,15 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="15" t="s">
+      <c r="A78" s="37"/>
+      <c r="B78" s="14" t="s">
         <v>122</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E78" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E78" ca="1">_xll.BDP(C78,$E$1)</f>
@@ -17751,15 +17714,15 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="15" t="s">
+      <c r="A79" s="37"/>
+      <c r="B79" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>157</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E79" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E79" ca="1">_xll.BDP(C79,$E$1)</f>
@@ -17795,8 +17758,8 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="15" t="s">
+      <c r="A80" s="37"/>
+      <c r="B80" s="14" t="s">
         <v>124</v>
       </c>
       <c r="C80" s="2" t="s">
@@ -17839,8 +17802,8 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="15" t="s">
+      <c r="A81" s="37"/>
+      <c r="B81" s="14" t="s">
         <v>125</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -17883,15 +17846,15 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="37"/>
+      <c r="B82" s="14" t="s">
         <v>126</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E82" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E82" ca="1">_xll.BDP(C82,$E$1)</f>
@@ -17927,8 +17890,8 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="15" t="s">
+      <c r="A83" s="37"/>
+      <c r="B83" s="14" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
@@ -17971,15 +17934,15 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="15" t="s">
+      <c r="A84" s="37"/>
+      <c r="B84" s="14" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>159</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E84" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E84" ca="1">_xll.BDP(C84,$E$1)</f>
@@ -18015,12 +17978,12 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="15" t="s">
+      <c r="A85" s="37"/>
+      <c r="B85" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>340</v>
@@ -18059,8 +18022,8 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="15" t="s">
+      <c r="A86" s="37"/>
+      <c r="B86" s="14" t="s">
         <v>130</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -18103,8 +18066,8 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="15" t="s">
+      <c r="A87" s="37"/>
+      <c r="B87" s="14" t="s">
         <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
@@ -18147,15 +18110,15 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="15" t="s">
+      <c r="A88" s="37"/>
+      <c r="B88" s="14" t="s">
         <v>132</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E88" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E88" ca="1">_xll.BDP(C88,$E$1)</f>
@@ -18191,15 +18154,15 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="14" t="s">
         <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>161</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E89" s="6" t="e" cm="1">
         <f t="array" aca="1" ref="E89" ca="1">_xll.BDP(C89,$E$1)</f>
@@ -18235,10 +18198,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="38" t="s">
+      <c r="A90" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C90" s="2" t="s">
@@ -18281,12 +18244,12 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="39"/>
-      <c r="B91" s="15" t="s">
+      <c r="A91" s="37"/>
+      <c r="B91" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>167</v>
@@ -18325,12 +18288,12 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="15" t="s">
+      <c r="A92" s="37"/>
+      <c r="B92" s="14" t="s">
         <v>168</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>169</v>
@@ -18369,8 +18332,8 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="15" t="s">
+      <c r="A93" s="37"/>
+      <c r="B93" s="14" t="s">
         <v>5</v>
       </c>
       <c r="C93" s="2" t="s">
@@ -18413,8 +18376,8 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="15" t="s">
+      <c r="A94" s="37"/>
+      <c r="B94" s="14" t="s">
         <v>171</v>
       </c>
       <c r="C94" s="2" t="s">
@@ -18457,12 +18420,12 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="39"/>
-      <c r="B95" s="15" t="s">
+      <c r="A95" s="37"/>
+      <c r="B95" s="14" t="s">
         <v>174</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>175</v>
@@ -18501,12 +18464,12 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="15" t="s">
+      <c r="A96" s="37"/>
+      <c r="B96" s="14" t="s">
         <v>176</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>177</v>
@@ -18545,12 +18508,12 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="37"/>
+      <c r="B97" s="14" t="s">
         <v>178</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>179</v>
@@ -18589,12 +18552,12 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
-      <c r="B98" s="15" t="s">
+      <c r="A98" s="37"/>
+      <c r="B98" s="14" t="s">
         <v>180</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>181</v>
@@ -18633,12 +18596,12 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="37"/>
+      <c r="B99" s="14" t="s">
         <v>182</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>183</v>
@@ -18677,8 +18640,8 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="15" t="s">
+      <c r="A100" s="37"/>
+      <c r="B100" s="14" t="s">
         <v>186</v>
       </c>
       <c r="C100" s="2" t="s">
@@ -18721,12 +18684,12 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="39"/>
-      <c r="B101" s="15" t="s">
+      <c r="A101" s="37"/>
+      <c r="B101" s="14" t="s">
         <v>188</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>189</v>
@@ -18765,12 +18728,12 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
-      <c r="B102" s="15" t="s">
+      <c r="A102" s="37"/>
+      <c r="B102" s="14" t="s">
         <v>190</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>191</v>
@@ -18809,12 +18772,12 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
-      <c r="B103" s="15" t="s">
+      <c r="A103" s="37"/>
+      <c r="B103" s="14" t="s">
         <v>192</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>193</v>
@@ -18853,8 +18816,8 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="39"/>
-      <c r="B104" s="15" t="s">
+      <c r="A104" s="37"/>
+      <c r="B104" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="2" t="s">
@@ -18897,12 +18860,12 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="39"/>
-      <c r="B105" s="15" t="s">
+      <c r="A105" s="37"/>
+      <c r="B105" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>196</v>
@@ -18941,12 +18904,12 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="39"/>
-      <c r="B106" s="15" t="s">
+      <c r="A106" s="37"/>
+      <c r="B106" s="14" t="s">
         <v>197</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>198</v>
@@ -18985,12 +18948,12 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="15" t="s">
+      <c r="A107" s="37"/>
+      <c r="B107" s="14" t="s">
         <v>199</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>200</v>
@@ -19029,8 +18992,8 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="15" t="s">
+      <c r="A108" s="37"/>
+      <c r="B108" s="14" t="s">
         <v>201</v>
       </c>
       <c r="C108" s="2" t="s">
@@ -19073,12 +19036,12 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="15" t="s">
+      <c r="A109" s="37"/>
+      <c r="B109" s="14" t="s">
         <v>203</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>204</v>
@@ -19117,8 +19080,8 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
-      <c r="B110" s="15" t="s">
+      <c r="A110" s="37"/>
+      <c r="B110" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -19161,12 +19124,12 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="15" t="s">
+      <c r="A111" s="37"/>
+      <c r="B111" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>207</v>
@@ -19205,8 +19168,8 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="39"/>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="37"/>
+      <c r="B112" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
@@ -19249,12 +19212,12 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="39"/>
-      <c r="B113" s="15" t="s">
+      <c r="A113" s="37"/>
+      <c r="B113" s="14" t="s">
         <v>209</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>210</v>
@@ -19293,8 +19256,8 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
-      <c r="B114" s="15" t="s">
+      <c r="A114" s="37"/>
+      <c r="B114" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
@@ -19337,12 +19300,12 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="39"/>
-      <c r="B115" s="15" t="s">
+      <c r="A115" s="37"/>
+      <c r="B115" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>213</v>
@@ -19381,12 +19344,12 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="15" t="s">
+      <c r="A116" s="37"/>
+      <c r="B116" s="14" t="s">
         <v>214</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>215</v>
@@ -19425,12 +19388,12 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
-      <c r="B117" s="15" t="s">
+      <c r="A117" s="37"/>
+      <c r="B117" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>217</v>
@@ -19469,8 +19432,8 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="39"/>
-      <c r="B118" s="15" t="s">
+      <c r="A118" s="37"/>
+      <c r="B118" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C118" s="2" t="s">
@@ -19513,8 +19476,8 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="39"/>
-      <c r="B119" s="15" t="s">
+      <c r="A119" s="37"/>
+      <c r="B119" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="2" t="s">
@@ -19557,12 +19520,12 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="37"/>
+      <c r="B120" s="14" t="s">
         <v>220</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>221</v>
@@ -19601,8 +19564,8 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="39"/>
-      <c r="B121" s="15" t="s">
+      <c r="A121" s="37"/>
+      <c r="B121" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -19645,12 +19608,12 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="15" t="s">
+      <c r="A122" s="37"/>
+      <c r="B122" s="14" t="s">
         <v>223</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>224</v>
@@ -19689,8 +19652,8 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
-      <c r="B123" s="15" t="s">
+      <c r="A123" s="37"/>
+      <c r="B123" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C123" s="2" t="s">
@@ -19733,12 +19696,12 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="15" t="s">
+      <c r="A124" s="37"/>
+      <c r="B124" s="14" t="s">
         <v>226</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>227</v>
@@ -19777,12 +19740,12 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="39"/>
-      <c r="B125" s="15" t="s">
+      <c r="A125" s="37"/>
+      <c r="B125" s="14" t="s">
         <v>228</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>229</v>
@@ -19821,12 +19784,12 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="15" t="s">
+      <c r="A126" s="37"/>
+      <c r="B126" s="14" t="s">
         <v>230</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>231</v>
@@ -19865,8 +19828,8 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="39"/>
-      <c r="B127" s="15" t="s">
+      <c r="A127" s="37"/>
+      <c r="B127" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C127" s="2" t="s">
@@ -19909,12 +19872,12 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="39"/>
-      <c r="B128" s="15" t="s">
+      <c r="A128" s="37"/>
+      <c r="B128" s="14" t="s">
         <v>233</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>234</v>
@@ -19953,8 +19916,8 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="39"/>
-      <c r="B129" s="15" t="s">
+      <c r="A129" s="37"/>
+      <c r="B129" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C129" s="2" t="s">
@@ -19997,12 +19960,12 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="39"/>
-      <c r="B130" s="15" t="s">
+      <c r="A130" s="37"/>
+      <c r="B130" s="14" t="s">
         <v>236</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>237</v>
@@ -20041,12 +20004,12 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="39"/>
-      <c r="B131" s="15" t="s">
+      <c r="A131" s="37"/>
+      <c r="B131" s="14" t="s">
         <v>238</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>239</v>
@@ -20085,8 +20048,8 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="39"/>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="37"/>
+      <c r="B132" s="14" t="s">
         <v>240</v>
       </c>
       <c r="C132" s="2" t="s">
@@ -20129,12 +20092,12 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="39"/>
-      <c r="B133" s="15" t="s">
+      <c r="A133" s="37"/>
+      <c r="B133" s="14" t="s">
         <v>242</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>243</v>
@@ -20173,12 +20136,12 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="39"/>
-      <c r="B134" s="15" t="s">
+      <c r="A134" s="37"/>
+      <c r="B134" s="14" t="s">
         <v>244</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>245</v>
@@ -20217,12 +20180,12 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="39"/>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="37"/>
+      <c r="B135" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>247</v>
@@ -20261,12 +20224,12 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="39"/>
-      <c r="B136" s="15" t="s">
+      <c r="A136" s="37"/>
+      <c r="B136" s="14" t="s">
         <v>248</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>249</v>
@@ -20305,12 +20268,12 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="39"/>
-      <c r="B137" s="15" t="s">
+      <c r="A137" s="37"/>
+      <c r="B137" s="14" t="s">
         <v>250</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>251</v>
@@ -20349,12 +20312,12 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="39"/>
-      <c r="B138" s="15" t="s">
+      <c r="A138" s="37"/>
+      <c r="B138" s="14" t="s">
         <v>252</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>253</v>
@@ -20393,12 +20356,12 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="39"/>
-      <c r="B139" s="15" t="s">
+      <c r="A139" s="37"/>
+      <c r="B139" s="14" t="s">
         <v>254</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>255</v>
@@ -20437,8 +20400,8 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="39"/>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="37"/>
+      <c r="B140" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C140" s="2" t="s">
@@ -20481,12 +20444,12 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="39"/>
-      <c r="B141" s="15" t="s">
+      <c r="A141" s="37"/>
+      <c r="B141" s="14" t="s">
         <v>257</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>258</v>
@@ -20525,12 +20488,12 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="39"/>
-      <c r="B142" s="15" t="s">
+      <c r="A142" s="37"/>
+      <c r="B142" s="14" t="s">
         <v>259</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>260</v>
@@ -20569,12 +20532,12 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="39"/>
-      <c r="B143" s="15" t="s">
+      <c r="A143" s="37"/>
+      <c r="B143" s="14" t="s">
         <v>261</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>262</v>
@@ -20613,12 +20576,12 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="39"/>
-      <c r="B144" s="15" t="s">
+      <c r="A144" s="37"/>
+      <c r="B144" s="14" t="s">
         <v>263</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>264</v>
@@ -20657,12 +20620,12 @@
       </c>
     </row>
     <row r="145" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="39"/>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="37"/>
+      <c r="B145" s="14" t="s">
         <v>265</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>266</v>
@@ -20701,12 +20664,12 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="39"/>
-      <c r="B146" s="15" t="s">
+      <c r="A146" s="37"/>
+      <c r="B146" s="14" t="s">
         <v>267</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>268</v>
@@ -20745,12 +20708,12 @@
       </c>
     </row>
     <row r="147" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="39"/>
-      <c r="B147" s="15" t="s">
+      <c r="A147" s="37"/>
+      <c r="B147" s="14" t="s">
         <v>269</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>270</v>
@@ -20789,8 +20752,8 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="39"/>
-      <c r="B148" s="15" t="s">
+      <c r="A148" s="37"/>
+      <c r="B148" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C148" s="2" t="s">
@@ -20833,12 +20796,12 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="39"/>
-      <c r="B149" s="15" t="s">
+      <c r="A149" s="37"/>
+      <c r="B149" s="14" t="s">
         <v>272</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>273</v>
@@ -20877,8 +20840,8 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="39"/>
-      <c r="B150" s="15" t="s">
+      <c r="A150" s="37"/>
+      <c r="B150" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C150" s="2" t="s">
@@ -20921,12 +20884,12 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="39"/>
-      <c r="B151" s="15" t="s">
+      <c r="A151" s="37"/>
+      <c r="B151" s="14" t="s">
         <v>275</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>276</v>
@@ -20965,8 +20928,8 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="39"/>
-      <c r="B152" s="15" t="s">
+      <c r="A152" s="37"/>
+      <c r="B152" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C152" s="2" t="s">
@@ -21009,8 +20972,8 @@
       </c>
     </row>
     <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="39"/>
-      <c r="B153" s="15" t="s">
+      <c r="A153" s="37"/>
+      <c r="B153" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C153" s="2" t="s">
@@ -21053,12 +21016,12 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="39"/>
-      <c r="B154" s="15" t="s">
+      <c r="A154" s="37"/>
+      <c r="B154" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>280</v>
@@ -21097,12 +21060,12 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="39"/>
-      <c r="B155" s="15" t="s">
+      <c r="A155" s="37"/>
+      <c r="B155" s="14" t="s">
         <v>281</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>282</v>
@@ -21141,12 +21104,12 @@
       </c>
     </row>
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="39"/>
-      <c r="B156" s="15" t="s">
+      <c r="A156" s="37"/>
+      <c r="B156" s="14" t="s">
         <v>283</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>284</v>
@@ -21185,12 +21148,12 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="39"/>
-      <c r="B157" s="15" t="s">
+      <c r="A157" s="37"/>
+      <c r="B157" s="14" t="s">
         <v>285</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>286</v>
@@ -21229,8 +21192,8 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="39"/>
-      <c r="B158" s="15" t="s">
+      <c r="A158" s="37"/>
+      <c r="B158" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C158" s="2" t="s">
@@ -21273,12 +21236,12 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="39"/>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="37"/>
+      <c r="B159" s="14" t="s">
         <v>288</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>289</v>
@@ -21317,12 +21280,12 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="39"/>
-      <c r="B160" s="15" t="s">
+      <c r="A160" s="37"/>
+      <c r="B160" s="14" t="s">
         <v>290</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>291</v>
@@ -21361,12 +21324,12 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="39"/>
-      <c r="B161" s="15" t="s">
+      <c r="A161" s="37"/>
+      <c r="B161" s="14" t="s">
         <v>292</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>293</v>
@@ -21405,8 +21368,8 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="39"/>
-      <c r="B162" s="15" t="s">
+      <c r="A162" s="37"/>
+      <c r="B162" s="14" t="s">
         <v>26</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -21449,12 +21412,12 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="39"/>
-      <c r="B163" s="15" t="s">
+      <c r="A163" s="37"/>
+      <c r="B163" s="14" t="s">
         <v>295</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>296</v>
@@ -21493,8 +21456,8 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="39"/>
-      <c r="B164" s="15" t="s">
+      <c r="A164" s="37"/>
+      <c r="B164" s="14" t="s">
         <v>297</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -21537,12 +21500,12 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="39"/>
-      <c r="B165" s="15" t="s">
+      <c r="A165" s="37"/>
+      <c r="B165" s="14" t="s">
         <v>299</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>300</v>
@@ -21581,12 +21544,12 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="39"/>
-      <c r="B166" s="15" t="s">
+      <c r="A166" s="37"/>
+      <c r="B166" s="14" t="s">
         <v>301</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>302</v>
@@ -21625,8 +21588,8 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="39"/>
-      <c r="B167" s="15" t="s">
+      <c r="A167" s="37"/>
+      <c r="B167" s="14" t="s">
         <v>303</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -21669,12 +21632,12 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="39"/>
-      <c r="B168" s="15" t="s">
+      <c r="A168" s="37"/>
+      <c r="B168" s="14" t="s">
         <v>305</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>306</v>
@@ -21713,8 +21676,8 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="39"/>
-      <c r="B169" s="15" t="s">
+      <c r="A169" s="37"/>
+      <c r="B169" s="14" t="s">
         <v>29</v>
       </c>
       <c r="C169" s="2" t="s">
@@ -21757,12 +21720,12 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="39"/>
-      <c r="B170" s="15" t="s">
+      <c r="A170" s="37"/>
+      <c r="B170" s="14" t="s">
         <v>308</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>309</v>
@@ -21801,12 +21764,12 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="39"/>
-      <c r="B171" s="15" t="s">
+      <c r="A171" s="37"/>
+      <c r="B171" s="14" t="s">
         <v>310</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>311</v>
@@ -21845,12 +21808,12 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="39"/>
-      <c r="B172" s="15" t="s">
+      <c r="A172" s="37"/>
+      <c r="B172" s="14" t="s">
         <v>312</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>313</v>
@@ -21889,8 +21852,8 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="39"/>
-      <c r="B173" s="15" t="s">
+      <c r="A173" s="37"/>
+      <c r="B173" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C173" s="2" t="s">
@@ -21933,8 +21896,8 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="39"/>
-      <c r="B174" s="15" t="s">
+      <c r="A174" s="37"/>
+      <c r="B174" s="14" t="s">
         <v>315</v>
       </c>
       <c r="C174" s="2" t="s">
@@ -21977,8 +21940,8 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="39"/>
-      <c r="B175" s="15" t="s">
+      <c r="A175" s="37"/>
+      <c r="B175" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C175" s="2" t="s">
@@ -22021,12 +21984,12 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="39"/>
-      <c r="B176" s="15" t="s">
+      <c r="A176" s="37"/>
+      <c r="B176" s="14" t="s">
         <v>318</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>319</v>
@@ -22065,8 +22028,8 @@
       </c>
     </row>
     <row r="177" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="39"/>
-      <c r="B177" s="15" t="s">
+      <c r="A177" s="37"/>
+      <c r="B177" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C177" s="2" t="s">
@@ -22109,12 +22072,12 @@
       </c>
     </row>
     <row r="178" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="39"/>
-      <c r="B178" s="15" t="s">
+      <c r="A178" s="37"/>
+      <c r="B178" s="14" t="s">
         <v>321</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>322</v>
@@ -22153,12 +22116,12 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="39"/>
-      <c r="B179" s="15" t="s">
+      <c r="A179" s="37"/>
+      <c r="B179" s="14" t="s">
         <v>323</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>324</v>
@@ -22197,8 +22160,8 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="39"/>
-      <c r="B180" s="15" t="s">
+      <c r="A180" s="37"/>
+      <c r="B180" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C180" s="2" t="s">
@@ -22241,12 +22204,12 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="39"/>
-      <c r="B181" s="15" t="s">
+      <c r="A181" s="37"/>
+      <c r="B181" s="14" t="s">
         <v>326</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>327</v>
@@ -22285,12 +22248,12 @@
       </c>
     </row>
     <row r="182" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="39"/>
-      <c r="B182" s="15" t="s">
+      <c r="A182" s="37"/>
+      <c r="B182" s="14" t="s">
         <v>328</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>329</v>
@@ -22329,12 +22292,12 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="39"/>
-      <c r="B183" s="15" t="s">
+      <c r="A183" s="37"/>
+      <c r="B183" s="14" t="s">
         <v>330</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>331</v>
@@ -22373,12 +22336,12 @@
       </c>
     </row>
     <row r="184" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="39"/>
-      <c r="B184" s="15" t="s">
+      <c r="A184" s="37"/>
+      <c r="B184" s="14" t="s">
         <v>332</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>333</v>
@@ -22417,12 +22380,12 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="39"/>
-      <c r="B185" s="15" t="s">
+      <c r="A185" s="37"/>
+      <c r="B185" s="14" t="s">
         <v>336</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>337</v>
@@ -22461,12 +22424,12 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="39"/>
-      <c r="B186" s="15" t="s">
+      <c r="A186" s="37"/>
+      <c r="B186" s="14" t="s">
         <v>338</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>339</v>
@@ -22505,12 +22468,12 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="39"/>
-      <c r="B187" s="15" t="s">
+      <c r="A187" s="37"/>
+      <c r="B187" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>340</v>
@@ -22549,8 +22512,8 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="39"/>
-      <c r="B188" s="15" t="s">
+      <c r="A188" s="37"/>
+      <c r="B188" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C188" s="2" t="s">
@@ -22593,12 +22556,12 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="39"/>
-      <c r="B189" s="15" t="s">
+      <c r="A189" s="37"/>
+      <c r="B189" s="14" t="s">
         <v>342</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>343</v>
@@ -22637,8 +22600,8 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="39"/>
-      <c r="B190" s="15" t="s">
+      <c r="A190" s="37"/>
+      <c r="B190" s="14" t="s">
         <v>37</v>
       </c>
       <c r="C190" s="2" t="s">
@@ -22681,12 +22644,12 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="39"/>
-      <c r="B191" s="15" t="s">
+      <c r="A191" s="37"/>
+      <c r="B191" s="14" t="s">
         <v>345</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>346</v>
@@ -22725,8 +22688,8 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="39"/>
-      <c r="B192" s="15" t="s">
+      <c r="A192" s="37"/>
+      <c r="B192" s="14" t="s">
         <v>38</v>
       </c>
       <c r="C192" s="2" t="s">
@@ -22769,8 +22732,8 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="39"/>
-      <c r="B193" s="15" t="s">
+      <c r="A193" s="37"/>
+      <c r="B193" s="14" t="s">
         <v>348</v>
       </c>
       <c r="C193" s="2" t="s">
@@ -22813,12 +22776,12 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="39"/>
-      <c r="B194" s="15" t="s">
+      <c r="A194" s="37"/>
+      <c r="B194" s="14" t="s">
         <v>350</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>351</v>
@@ -22857,12 +22820,12 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="39"/>
-      <c r="B195" s="15" t="s">
+      <c r="A195" s="37"/>
+      <c r="B195" s="14" t="s">
         <v>352</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>353</v>
@@ -22901,8 +22864,8 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="39"/>
-      <c r="B196" s="15" t="s">
+      <c r="A196" s="37"/>
+      <c r="B196" s="14" t="s">
         <v>354</v>
       </c>
       <c r="C196" s="2" t="s">
@@ -22945,12 +22908,12 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="39"/>
-      <c r="B197" s="15" t="s">
+      <c r="A197" s="37"/>
+      <c r="B197" s="14" t="s">
         <v>356</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>357</v>
@@ -22989,12 +22952,12 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="39"/>
-      <c r="B198" s="15" t="s">
+      <c r="A198" s="37"/>
+      <c r="B198" s="14" t="s">
         <v>358</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>359</v>
@@ -23033,12 +22996,12 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="39"/>
-      <c r="B199" s="15" t="s">
+      <c r="A199" s="37"/>
+      <c r="B199" s="14" t="s">
         <v>360</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>361</v>
@@ -23077,8 +23040,8 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="39"/>
-      <c r="B200" s="15" t="s">
+      <c r="A200" s="37"/>
+      <c r="B200" s="14" t="s">
         <v>362</v>
       </c>
       <c r="C200" s="2" t="s">
@@ -23121,12 +23084,12 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="39"/>
-      <c r="B201" s="15" t="s">
+      <c r="A201" s="37"/>
+      <c r="B201" s="14" t="s">
         <v>364</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>365</v>
@@ -23165,12 +23128,12 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="39"/>
-      <c r="B202" s="15" t="s">
+      <c r="A202" s="37"/>
+      <c r="B202" s="14" t="s">
         <v>366</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>367</v>
@@ -23209,8 +23172,8 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="39"/>
-      <c r="B203" s="15" t="s">
+      <c r="A203" s="37"/>
+      <c r="B203" s="14" t="s">
         <v>42</v>
       </c>
       <c r="C203" s="2" t="s">
@@ -23253,12 +23216,12 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="39"/>
-      <c r="B204" s="15" t="s">
+      <c r="A204" s="37"/>
+      <c r="B204" s="14" t="s">
         <v>369</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>370</v>
@@ -23297,8 +23260,8 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="39"/>
-      <c r="B205" s="15" t="s">
+      <c r="A205" s="37"/>
+      <c r="B205" s="14" t="s">
         <v>371</v>
       </c>
       <c r="C205" s="2" t="s">
@@ -23341,12 +23304,12 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="39"/>
-      <c r="B206" s="15" t="s">
+      <c r="A206" s="37"/>
+      <c r="B206" s="14" t="s">
         <v>373</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>374</v>
@@ -23385,12 +23348,12 @@
       </c>
     </row>
     <row r="207" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="39"/>
-      <c r="B207" s="15" t="s">
+      <c r="A207" s="37"/>
+      <c r="B207" s="14" t="s">
         <v>375</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>376</v>
@@ -23429,12 +23392,12 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="39"/>
-      <c r="B208" s="15" t="s">
+      <c r="A208" s="37"/>
+      <c r="B208" s="14" t="s">
         <v>377</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>378</v>
@@ -23473,12 +23436,12 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="40"/>
-      <c r="B209" s="17" t="s">
+      <c r="A209" s="38"/>
+      <c r="B209" s="16" t="s">
         <v>379</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>380</v>
@@ -23517,14 +23480,14 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="42" t="s">
+      <c r="A210" s="40" t="s">
         <v>550</v>
       </c>
       <c r="B210" s="4" t="s">
         <v>381</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>382</v>
@@ -23563,12 +23526,12 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="43"/>
+      <c r="A211" s="41"/>
       <c r="B211" s="5" t="s">
         <v>383</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>384</v>
@@ -23607,12 +23570,12 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="43"/>
+      <c r="A212" s="41"/>
       <c r="B212" s="5" t="s">
         <v>385</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>386</v>
@@ -23651,12 +23614,12 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="43"/>
+      <c r="A213" s="41"/>
       <c r="B213" s="5" t="s">
         <v>387</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>388</v>
@@ -23695,12 +23658,12 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="43"/>
+      <c r="A214" s="41"/>
       <c r="B214" s="5" t="s">
         <v>389</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>390</v>
@@ -23739,12 +23702,12 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="43"/>
+      <c r="A215" s="41"/>
       <c r="B215" s="5" t="s">
         <v>391</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>392</v>
@@ -23783,12 +23746,12 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="43"/>
+      <c r="A216" s="41"/>
       <c r="B216" s="5" t="s">
         <v>393</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>394</v>
@@ -23827,12 +23790,12 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="43"/>
+      <c r="A217" s="41"/>
       <c r="B217" s="5" t="s">
         <v>395</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>396</v>
@@ -23871,12 +23834,12 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="43"/>
+      <c r="A218" s="41"/>
       <c r="B218" s="5" t="s">
         <v>397</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>398</v>
@@ -23915,12 +23878,12 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="43"/>
+      <c r="A219" s="41"/>
       <c r="B219" s="5" t="s">
         <v>399</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>400</v>
@@ -23959,12 +23922,12 @@
       </c>
     </row>
     <row r="220" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="43"/>
+      <c r="A220" s="41"/>
       <c r="B220" s="5" t="s">
         <v>401</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>402</v>
@@ -24003,12 +23966,12 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="43"/>
+      <c r="A221" s="41"/>
       <c r="B221" s="5" t="s">
         <v>403</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>404</v>
@@ -24047,12 +24010,12 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="43"/>
+      <c r="A222" s="41"/>
       <c r="B222" s="5" t="s">
         <v>405</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>406</v>
@@ -24091,12 +24054,12 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="43"/>
+      <c r="A223" s="41"/>
       <c r="B223" s="5" t="s">
         <v>407</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>408</v>
@@ -24135,12 +24098,12 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="43"/>
+      <c r="A224" s="41"/>
       <c r="B224" s="5" t="s">
         <v>409</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>410</v>
@@ -24179,12 +24142,12 @@
       </c>
     </row>
     <row r="225" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="43"/>
+      <c r="A225" s="41"/>
       <c r="B225" s="5" t="s">
         <v>411</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>412</v>
@@ -24223,12 +24186,12 @@
       </c>
     </row>
     <row r="226" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="43"/>
+      <c r="A226" s="41"/>
       <c r="B226" s="5" t="s">
         <v>413</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>414</v>
@@ -24267,12 +24230,12 @@
       </c>
     </row>
     <row r="227" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="43"/>
+      <c r="A227" s="41"/>
       <c r="B227" s="5" t="s">
         <v>415</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>416</v>
@@ -24311,12 +24274,12 @@
       </c>
     </row>
     <row r="228" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="43"/>
+      <c r="A228" s="41"/>
       <c r="B228" s="5" t="s">
         <v>417</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>418</v>
@@ -24355,12 +24318,12 @@
       </c>
     </row>
     <row r="229" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="43"/>
+      <c r="A229" s="41"/>
       <c r="B229" s="5" t="s">
         <v>419</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>420</v>
@@ -24399,12 +24362,12 @@
       </c>
     </row>
     <row r="230" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="43"/>
+      <c r="A230" s="41"/>
       <c r="B230" s="5" t="s">
         <v>421</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>422</v>
@@ -24443,12 +24406,12 @@
       </c>
     </row>
     <row r="231" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="43"/>
+      <c r="A231" s="41"/>
       <c r="B231" s="5" t="s">
         <v>423</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>424</v>
@@ -24487,12 +24450,12 @@
       </c>
     </row>
     <row r="232" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="43"/>
+      <c r="A232" s="41"/>
       <c r="B232" s="5" t="s">
         <v>425</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>426</v>
@@ -24531,12 +24494,12 @@
       </c>
     </row>
     <row r="233" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233" s="43"/>
+      <c r="A233" s="41"/>
       <c r="B233" s="5" t="s">
         <v>427</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>428</v>
@@ -24575,12 +24538,12 @@
       </c>
     </row>
     <row r="234" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="43"/>
+      <c r="A234" s="41"/>
       <c r="B234" s="5" t="s">
         <v>429</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>430</v>
@@ -24619,12 +24582,12 @@
       </c>
     </row>
     <row r="235" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="43"/>
+      <c r="A235" s="41"/>
       <c r="B235" s="5" t="s">
         <v>431</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>432</v>
@@ -24663,12 +24626,12 @@
       </c>
     </row>
     <row r="236" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236" s="43"/>
+      <c r="A236" s="41"/>
       <c r="B236" s="5" t="s">
         <v>433</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>434</v>
@@ -24707,12 +24670,12 @@
       </c>
     </row>
     <row r="237" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="43"/>
+      <c r="A237" s="41"/>
       <c r="B237" s="5" t="s">
         <v>435</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>436</v>
@@ -24751,12 +24714,12 @@
       </c>
     </row>
     <row r="238" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238" s="43"/>
+      <c r="A238" s="41"/>
       <c r="B238" s="5" t="s">
         <v>437</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>438</v>
@@ -24795,12 +24758,12 @@
       </c>
     </row>
     <row r="239" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A239" s="43"/>
+      <c r="A239" s="41"/>
       <c r="B239" s="5" t="s">
         <v>439</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>440</v>
@@ -24839,12 +24802,12 @@
       </c>
     </row>
     <row r="240" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A240" s="43"/>
+      <c r="A240" s="41"/>
       <c r="B240" s="5" t="s">
         <v>441</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>442</v>
@@ -24883,12 +24846,12 @@
       </c>
     </row>
     <row r="241" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="43"/>
+      <c r="A241" s="41"/>
       <c r="B241" s="5" t="s">
         <v>443</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>444</v>
@@ -24927,12 +24890,12 @@
       </c>
     </row>
     <row r="242" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242" s="43"/>
+      <c r="A242" s="41"/>
       <c r="B242" s="5" t="s">
         <v>445</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>446</v>
@@ -24971,12 +24934,12 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="43"/>
+      <c r="A243" s="41"/>
       <c r="B243" s="5" t="s">
         <v>447</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>448</v>
@@ -25015,12 +24978,12 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244" s="43"/>
+      <c r="A244" s="41"/>
       <c r="B244" s="5" t="s">
         <v>449</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>450</v>
@@ -25059,12 +25022,12 @@
       </c>
     </row>
     <row r="245" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245" s="43"/>
+      <c r="A245" s="41"/>
       <c r="B245" s="5" t="s">
         <v>451</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>452</v>
@@ -25103,12 +25066,12 @@
       </c>
     </row>
     <row r="246" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="43"/>
+      <c r="A246" s="41"/>
       <c r="B246" s="5" t="s">
         <v>453</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>454</v>
@@ -25147,12 +25110,12 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="43"/>
+      <c r="A247" s="41"/>
       <c r="B247" s="5" t="s">
         <v>455</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>456</v>
@@ -25191,12 +25154,12 @@
       </c>
     </row>
     <row r="248" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="43"/>
+      <c r="A248" s="41"/>
       <c r="B248" s="5" t="s">
         <v>457</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>458</v>
@@ -25235,12 +25198,12 @@
       </c>
     </row>
     <row r="249" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="43"/>
+      <c r="A249" s="41"/>
       <c r="B249" s="5" t="s">
         <v>459</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>460</v>
@@ -25279,12 +25242,12 @@
       </c>
     </row>
     <row r="250" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250" s="43"/>
+      <c r="A250" s="41"/>
       <c r="B250" s="5" t="s">
         <v>461</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>462</v>
@@ -25323,12 +25286,12 @@
       </c>
     </row>
     <row r="251" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="43"/>
+      <c r="A251" s="41"/>
       <c r="B251" s="5" t="s">
         <v>463</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>464</v>
@@ -25367,12 +25330,12 @@
       </c>
     </row>
     <row r="252" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A252" s="43"/>
+      <c r="A252" s="41"/>
       <c r="B252" s="5" t="s">
         <v>465</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>466</v>
@@ -25411,12 +25374,12 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="43"/>
+      <c r="A253" s="41"/>
       <c r="B253" s="5" t="s">
         <v>467</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>468</v>
@@ -25455,12 +25418,12 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A254" s="43"/>
+      <c r="A254" s="41"/>
       <c r="B254" s="5" t="s">
         <v>469</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>470</v>
@@ -25499,12 +25462,12 @@
       </c>
     </row>
     <row r="255" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="43"/>
+      <c r="A255" s="41"/>
       <c r="B255" s="5" t="s">
         <v>471</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>472</v>
@@ -25543,12 +25506,12 @@
       </c>
     </row>
     <row r="256" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A256" s="43"/>
+      <c r="A256" s="41"/>
       <c r="B256" s="5" t="s">
         <v>473</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>474</v>
@@ -25587,12 +25550,12 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257" s="43"/>
+      <c r="A257" s="41"/>
       <c r="B257" s="5" t="s">
         <v>475</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>476</v>
@@ -25631,12 +25594,12 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258" s="43"/>
+      <c r="A258" s="41"/>
       <c r="B258" s="5" t="s">
         <v>477</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>478</v>
@@ -25675,12 +25638,12 @@
       </c>
     </row>
     <row r="259" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="43"/>
+      <c r="A259" s="41"/>
       <c r="B259" s="5" t="s">
         <v>479</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>480</v>
@@ -25719,12 +25682,12 @@
       </c>
     </row>
     <row r="260" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="43"/>
+      <c r="A260" s="41"/>
       <c r="B260" s="5" t="s">
         <v>481</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>482</v>
@@ -25763,12 +25726,12 @@
       </c>
     </row>
     <row r="261" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="43"/>
+      <c r="A261" s="41"/>
       <c r="B261" s="5" t="s">
         <v>483</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>484</v>
@@ -25807,12 +25770,12 @@
       </c>
     </row>
     <row r="262" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A262" s="43"/>
+      <c r="A262" s="41"/>
       <c r="B262" s="5" t="s">
         <v>485</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>486</v>
@@ -25851,12 +25814,12 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A263" s="43"/>
+      <c r="A263" s="41"/>
       <c r="B263" s="5" t="s">
         <v>487</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>488</v>
@@ -25895,12 +25858,12 @@
       </c>
     </row>
     <row r="264" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A264" s="43"/>
+      <c r="A264" s="41"/>
       <c r="B264" s="5" t="s">
         <v>489</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>490</v>
@@ -25939,12 +25902,12 @@
       </c>
     </row>
     <row r="265" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="43"/>
+      <c r="A265" s="41"/>
       <c r="B265" s="5" t="s">
         <v>491</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>492</v>
@@ -25983,12 +25946,12 @@
       </c>
     </row>
     <row r="266" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A266" s="43"/>
+      <c r="A266" s="41"/>
       <c r="B266" s="5" t="s">
         <v>493</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>494</v>
@@ -26027,12 +25990,12 @@
       </c>
     </row>
     <row r="267" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="43"/>
+      <c r="A267" s="41"/>
       <c r="B267" s="5" t="s">
         <v>495</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>496</v>
@@ -26071,12 +26034,12 @@
       </c>
     </row>
     <row r="268" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="43"/>
+      <c r="A268" s="41"/>
       <c r="B268" s="5" t="s">
         <v>497</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>498</v>
@@ -26115,12 +26078,12 @@
       </c>
     </row>
     <row r="269" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A269" s="43"/>
+      <c r="A269" s="41"/>
       <c r="B269" s="5" t="s">
         <v>499</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>500</v>
@@ -26159,12 +26122,12 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A270" s="43"/>
+      <c r="A270" s="41"/>
       <c r="B270" s="5" t="s">
         <v>501</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>502</v>
@@ -26203,12 +26166,12 @@
       </c>
     </row>
     <row r="271" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="43"/>
+      <c r="A271" s="41"/>
       <c r="B271" s="5" t="s">
         <v>503</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>504</v>
@@ -26247,12 +26210,12 @@
       </c>
     </row>
     <row r="272" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272" s="43"/>
+      <c r="A272" s="41"/>
       <c r="B272" s="5" t="s">
         <v>505</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>506</v>
@@ -26291,12 +26254,12 @@
       </c>
     </row>
     <row r="273" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="43"/>
+      <c r="A273" s="41"/>
       <c r="B273" s="5" t="s">
         <v>507</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>508</v>
@@ -26335,12 +26298,12 @@
       </c>
     </row>
     <row r="274" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274" s="43"/>
+      <c r="A274" s="41"/>
       <c r="B274" s="5" t="s">
         <v>509</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>510</v>
@@ -26379,12 +26342,12 @@
       </c>
     </row>
     <row r="275" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="43"/>
+      <c r="A275" s="41"/>
       <c r="B275" s="5" t="s">
         <v>511</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>512</v>
@@ -26423,12 +26386,12 @@
       </c>
     </row>
     <row r="276" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="43"/>
+      <c r="A276" s="41"/>
       <c r="B276" s="5" t="s">
         <v>513</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>514</v>
@@ -26467,12 +26430,12 @@
       </c>
     </row>
     <row r="277" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="43"/>
+      <c r="A277" s="41"/>
       <c r="B277" s="5" t="s">
         <v>515</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>516</v>
@@ -26511,12 +26474,12 @@
       </c>
     </row>
     <row r="278" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278" s="43"/>
+      <c r="A278" s="41"/>
       <c r="B278" s="5" t="s">
         <v>517</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>518</v>
@@ -26555,12 +26518,12 @@
       </c>
     </row>
     <row r="279" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="43"/>
+      <c r="A279" s="41"/>
       <c r="B279" s="5" t="s">
         <v>519</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>520</v>
@@ -26599,12 +26562,12 @@
       </c>
     </row>
     <row r="280" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280" s="43"/>
+      <c r="A280" s="41"/>
       <c r="B280" s="5" t="s">
         <v>521</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>522</v>
@@ -26643,12 +26606,12 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281" s="43"/>
+      <c r="A281" s="41"/>
       <c r="B281" s="5" t="s">
         <v>523</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>524</v>
@@ -26687,12 +26650,12 @@
       </c>
     </row>
     <row r="282" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="43"/>
+      <c r="A282" s="41"/>
       <c r="B282" s="5" t="s">
         <v>525</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>526</v>
@@ -26731,12 +26694,12 @@
       </c>
     </row>
     <row r="283" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="43"/>
+      <c r="A283" s="41"/>
       <c r="B283" s="5" t="s">
         <v>527</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>528</v>
@@ -26775,12 +26738,12 @@
       </c>
     </row>
     <row r="284" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="43"/>
+      <c r="A284" s="41"/>
       <c r="B284" s="5" t="s">
         <v>529</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>530</v>
@@ -26819,12 +26782,12 @@
       </c>
     </row>
     <row r="285" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="43"/>
+      <c r="A285" s="41"/>
       <c r="B285" s="5" t="s">
         <v>531</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>532</v>
@@ -26863,12 +26826,12 @@
       </c>
     </row>
     <row r="286" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="43"/>
+      <c r="A286" s="41"/>
       <c r="B286" s="5" t="s">
         <v>533</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>534</v>
@@ -26907,12 +26870,12 @@
       </c>
     </row>
     <row r="287" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="43"/>
+      <c r="A287" s="41"/>
       <c r="B287" s="5" t="s">
         <v>535</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>536</v>
@@ -26951,12 +26914,12 @@
       </c>
     </row>
     <row r="288" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="43"/>
+      <c r="A288" s="41"/>
       <c r="B288" s="5" t="s">
         <v>537</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>538</v>
@@ -26995,12 +26958,12 @@
       </c>
     </row>
     <row r="289" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="43"/>
+      <c r="A289" s="41"/>
       <c r="B289" s="5" t="s">
         <v>539</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>540</v>
@@ -27039,12 +27002,12 @@
       </c>
     </row>
     <row r="290" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A290" s="43"/>
+      <c r="A290" s="41"/>
       <c r="B290" s="5" t="s">
         <v>541</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>542</v>
@@ -27083,12 +27046,12 @@
       </c>
     </row>
     <row r="291" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="43"/>
+      <c r="A291" s="41"/>
       <c r="B291" s="5" t="s">
         <v>543</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>544</v>
@@ -27127,12 +27090,12 @@
       </c>
     </row>
     <row r="292" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A292" s="44"/>
-      <c r="B292" s="9" t="s">
+      <c r="A292" s="42"/>
+      <c r="B292" s="8" t="s">
         <v>545</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>546</v>
@@ -27171,14 +27134,14 @@
       </c>
     </row>
     <row r="293" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="45" t="s">
+      <c r="A293" s="43" t="s">
         <v>551</v>
       </c>
       <c r="B293" s="4" t="s">
         <v>166</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>167</v>
@@ -27217,12 +27180,12 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="46"/>
+      <c r="A294" s="44"/>
       <c r="B294" s="5" t="s">
         <v>174</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>175</v>
@@ -27261,12 +27224,12 @@
       </c>
     </row>
     <row r="295" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="46"/>
+      <c r="A295" s="44"/>
       <c r="B295" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>179</v>
@@ -27305,12 +27268,12 @@
       </c>
     </row>
     <row r="296" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A296" s="46"/>
+      <c r="A296" s="44"/>
       <c r="B296" s="5" t="s">
         <v>180</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>181</v>
@@ -27349,12 +27312,12 @@
       </c>
     </row>
     <row r="297" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="46"/>
+      <c r="A297" s="44"/>
       <c r="B297" s="5" t="s">
         <v>182</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>183</v>
@@ -27393,12 +27356,12 @@
       </c>
     </row>
     <row r="298" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A298" s="46"/>
+      <c r="A298" s="44"/>
       <c r="B298" s="5" t="s">
         <v>188</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>189</v>
@@ -27437,12 +27400,12 @@
       </c>
     </row>
     <row r="299" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A299" s="46"/>
+      <c r="A299" s="44"/>
       <c r="B299" s="5" t="s">
         <v>192</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>193</v>
@@ -27481,12 +27444,12 @@
       </c>
     </row>
     <row r="300" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A300" s="46"/>
+      <c r="A300" s="44"/>
       <c r="B300" s="5" t="s">
         <v>195</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>196</v>
@@ -27525,12 +27488,12 @@
       </c>
     </row>
     <row r="301" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="46"/>
+      <c r="A301" s="44"/>
       <c r="B301" s="5" t="s">
         <v>197</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>198</v>
@@ -27569,12 +27532,12 @@
       </c>
     </row>
     <row r="302" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A302" s="46"/>
+      <c r="A302" s="44"/>
       <c r="B302" s="5" t="s">
         <v>203</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>204</v>
@@ -27613,12 +27576,12 @@
       </c>
     </row>
     <row r="303" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="46"/>
+      <c r="A303" s="44"/>
       <c r="B303" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>210</v>
@@ -27657,12 +27620,12 @@
       </c>
     </row>
     <row r="304" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304" s="46"/>
+      <c r="A304" s="44"/>
       <c r="B304" s="5" t="s">
         <v>212</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>213</v>
@@ -27701,12 +27664,12 @@
       </c>
     </row>
     <row r="305" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="46"/>
+      <c r="A305" s="44"/>
       <c r="B305" s="5" t="s">
         <v>214</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>215</v>
@@ -27745,12 +27708,12 @@
       </c>
     </row>
     <row r="306" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="46"/>
+      <c r="A306" s="44"/>
       <c r="B306" s="5" t="s">
         <v>216</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>217</v>
@@ -27789,12 +27752,12 @@
       </c>
     </row>
     <row r="307" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="46"/>
+      <c r="A307" s="44"/>
       <c r="B307" s="5" t="s">
         <v>220</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>221</v>
@@ -27833,12 +27796,12 @@
       </c>
     </row>
     <row r="308" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308" s="46"/>
+      <c r="A308" s="44"/>
       <c r="B308" s="5" t="s">
         <v>223</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>224</v>
@@ -27877,12 +27840,12 @@
       </c>
     </row>
     <row r="309" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="46"/>
+      <c r="A309" s="44"/>
       <c r="B309" s="5" t="s">
         <v>228</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>229</v>
@@ -27921,12 +27884,12 @@
       </c>
     </row>
     <row r="310" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310" s="46"/>
+      <c r="A310" s="44"/>
       <c r="B310" s="5" t="s">
         <v>230</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>231</v>
@@ -27965,12 +27928,12 @@
       </c>
     </row>
     <row r="311" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311" s="46"/>
+      <c r="A311" s="44"/>
       <c r="B311" s="5" t="s">
         <v>233</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>234</v>
@@ -28009,12 +27972,12 @@
       </c>
     </row>
     <row r="312" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A312" s="46"/>
+      <c r="A312" s="44"/>
       <c r="B312" s="5" t="s">
         <v>236</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>237</v>
@@ -28053,12 +28016,12 @@
       </c>
     </row>
     <row r="313" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="46"/>
+      <c r="A313" s="44"/>
       <c r="B313" s="5" t="s">
         <v>238</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>239</v>
@@ -28097,12 +28060,12 @@
       </c>
     </row>
     <row r="314" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A314" s="46"/>
+      <c r="A314" s="44"/>
       <c r="B314" s="5" t="s">
         <v>244</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>245</v>
@@ -28141,12 +28104,12 @@
       </c>
     </row>
     <row r="315" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="46"/>
+      <c r="A315" s="44"/>
       <c r="B315" s="5" t="s">
         <v>246</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>247</v>
@@ -28185,12 +28148,12 @@
       </c>
     </row>
     <row r="316" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316" s="46"/>
+      <c r="A316" s="44"/>
       <c r="B316" s="5" t="s">
         <v>254</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>255</v>
@@ -28229,12 +28192,12 @@
       </c>
     </row>
     <row r="317" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317" s="46"/>
+      <c r="A317" s="44"/>
       <c r="B317" s="5" t="s">
         <v>257</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>258</v>
@@ -28273,12 +28236,12 @@
       </c>
     </row>
     <row r="318" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318" s="46"/>
+      <c r="A318" s="44"/>
       <c r="B318" s="5" t="s">
         <v>259</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>260</v>
@@ -28317,12 +28280,12 @@
       </c>
     </row>
     <row r="319" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="46"/>
+      <c r="A319" s="44"/>
       <c r="B319" s="5" t="s">
         <v>261</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>262</v>
@@ -28361,12 +28324,12 @@
       </c>
     </row>
     <row r="320" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A320" s="46"/>
+      <c r="A320" s="44"/>
       <c r="B320" s="5" t="s">
         <v>263</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>264</v>
@@ -28405,12 +28368,12 @@
       </c>
     </row>
     <row r="321" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="46"/>
+      <c r="A321" s="44"/>
       <c r="B321" s="5" t="s">
         <v>265</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>266</v>
@@ -28449,12 +28412,12 @@
       </c>
     </row>
     <row r="322" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="46"/>
+      <c r="A322" s="44"/>
       <c r="B322" s="5" t="s">
         <v>267</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>268</v>
@@ -28493,12 +28456,12 @@
       </c>
     </row>
     <row r="323" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323" s="46"/>
+      <c r="A323" s="44"/>
       <c r="B323" s="5" t="s">
         <v>269</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>270</v>
@@ -28537,12 +28500,12 @@
       </c>
     </row>
     <row r="324" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="46"/>
+      <c r="A324" s="44"/>
       <c r="B324" s="5" t="s">
         <v>275</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>276</v>
@@ -28581,12 +28544,12 @@
       </c>
     </row>
     <row r="325" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="46"/>
+      <c r="A325" s="44"/>
       <c r="B325" s="5" t="s">
         <v>279</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>280</v>
@@ -28625,12 +28588,12 @@
       </c>
     </row>
     <row r="326" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A326" s="46"/>
+      <c r="A326" s="44"/>
       <c r="B326" s="5" t="s">
         <v>281</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>282</v>
@@ -28669,12 +28632,12 @@
       </c>
     </row>
     <row r="327" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="46"/>
+      <c r="A327" s="44"/>
       <c r="B327" s="5" t="s">
         <v>283</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>284</v>
@@ -28713,12 +28676,12 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A328" s="46"/>
+      <c r="A328" s="44"/>
       <c r="B328" s="5" t="s">
         <v>285</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>286</v>
@@ -28757,12 +28720,12 @@
       </c>
     </row>
     <row r="329" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A329" s="46"/>
+      <c r="A329" s="44"/>
       <c r="B329" s="5" t="s">
         <v>288</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>289</v>
@@ -28801,12 +28764,12 @@
       </c>
     </row>
     <row r="330" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330" s="46"/>
+      <c r="A330" s="44"/>
       <c r="B330" s="5" t="s">
         <v>290</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>291</v>
@@ -28845,12 +28808,12 @@
       </c>
     </row>
     <row r="331" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="46"/>
+      <c r="A331" s="44"/>
       <c r="B331" s="5" t="s">
         <v>292</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>293</v>
@@ -28889,12 +28852,12 @@
       </c>
     </row>
     <row r="332" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A332" s="46"/>
+      <c r="A332" s="44"/>
       <c r="B332" s="5" t="s">
         <v>295</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>296</v>
@@ -28933,12 +28896,12 @@
       </c>
     </row>
     <row r="333" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="46"/>
+      <c r="A333" s="44"/>
       <c r="B333" s="5" t="s">
         <v>299</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>300</v>
@@ -28977,12 +28940,12 @@
       </c>
     </row>
     <row r="334" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A334" s="46"/>
+      <c r="A334" s="44"/>
       <c r="B334" s="5" t="s">
         <v>305</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>306</v>
@@ -29021,12 +28984,12 @@
       </c>
     </row>
     <row r="335" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A335" s="46"/>
+      <c r="A335" s="44"/>
       <c r="B335" s="5" t="s">
         <v>310</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>311</v>
@@ -29065,12 +29028,12 @@
       </c>
     </row>
     <row r="336" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A336" s="46"/>
+      <c r="A336" s="44"/>
       <c r="B336" s="5" t="s">
         <v>312</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>313</v>
@@ -29109,12 +29072,12 @@
       </c>
     </row>
     <row r="337" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="46"/>
+      <c r="A337" s="44"/>
       <c r="B337" s="5" t="s">
         <v>323</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>324</v>
@@ -29153,12 +29116,12 @@
       </c>
     </row>
     <row r="338" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A338" s="46"/>
+      <c r="A338" s="44"/>
       <c r="B338" s="5" t="s">
         <v>330</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>331</v>
@@ -29197,12 +29160,12 @@
       </c>
     </row>
     <row r="339" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="46"/>
+      <c r="A339" s="44"/>
       <c r="B339" s="5" t="s">
         <v>336</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>337</v>
@@ -29241,12 +29204,12 @@
       </c>
     </row>
     <row r="340" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340" s="46"/>
+      <c r="A340" s="44"/>
       <c r="B340" s="5" t="s">
         <v>338</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>339</v>
@@ -29285,12 +29248,12 @@
       </c>
     </row>
     <row r="341" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="46"/>
+      <c r="A341" s="44"/>
       <c r="B341" s="5" t="s">
         <v>342</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>343</v>
@@ -29329,12 +29292,12 @@
       </c>
     </row>
     <row r="342" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A342" s="46"/>
+      <c r="A342" s="44"/>
       <c r="B342" s="5" t="s">
         <v>345</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D342" s="2" t="s">
         <v>346</v>
@@ -29373,12 +29336,12 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="46"/>
+      <c r="A343" s="44"/>
       <c r="B343" s="5" t="s">
         <v>350</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>351</v>
@@ -29417,12 +29380,12 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="46"/>
+      <c r="A344" s="44"/>
       <c r="B344" s="5" t="s">
         <v>352</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>353</v>
@@ -29461,12 +29424,12 @@
       </c>
     </row>
     <row r="345" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="46"/>
+      <c r="A345" s="44"/>
       <c r="B345" s="5" t="s">
         <v>358</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D345" s="2" t="s">
         <v>359</v>
@@ -29505,12 +29468,12 @@
       </c>
     </row>
     <row r="346" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346" s="46"/>
+      <c r="A346" s="44"/>
       <c r="B346" s="5" t="s">
         <v>360</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>361</v>
@@ -29549,12 +29512,12 @@
       </c>
     </row>
     <row r="347" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347" s="46"/>
+      <c r="A347" s="44"/>
       <c r="B347" s="5" t="s">
         <v>364</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>365</v>
@@ -29593,12 +29556,12 @@
       </c>
     </row>
     <row r="348" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A348" s="46"/>
+      <c r="A348" s="44"/>
       <c r="B348" s="5" t="s">
         <v>366</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>367</v>
@@ -29637,12 +29600,12 @@
       </c>
     </row>
     <row r="349" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="46"/>
+      <c r="A349" s="44"/>
       <c r="B349" s="5" t="s">
         <v>369</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>370</v>
@@ -29681,12 +29644,12 @@
       </c>
     </row>
     <row r="350" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350" s="46"/>
+      <c r="A350" s="44"/>
       <c r="B350" s="5" t="s">
         <v>373</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>374</v>
@@ -29725,12 +29688,12 @@
       </c>
     </row>
     <row r="351" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="46"/>
+      <c r="A351" s="44"/>
       <c r="B351" s="5" t="s">
         <v>375</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>376</v>
@@ -29769,12 +29732,12 @@
       </c>
     </row>
     <row r="352" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352" s="46"/>
-      <c r="B352" s="9" t="s">
+      <c r="A352" s="44"/>
+      <c r="B352" s="8" t="s">
         <v>379</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>380</v>
@@ -29813,12 +29776,12 @@
       </c>
     </row>
     <row r="353" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353" s="41"/>
-      <c r="B353" s="13" t="s">
+      <c r="A353" s="39"/>
+      <c r="B353" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="C353" s="13" t="s">
-        <v>814</v>
+      <c r="C353" s="12" t="s">
+        <v>813</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>587</v>
@@ -29857,12 +29820,12 @@
       </c>
     </row>
     <row r="354" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354" s="36"/>
-      <c r="B354" s="10" t="s">
+      <c r="A354" s="34"/>
+      <c r="B354" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C354" s="10" t="s">
-        <v>815</v>
+      <c r="C354" s="9" t="s">
+        <v>814</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>586</v>
@@ -29901,12 +29864,12 @@
       </c>
     </row>
     <row r="355" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="36"/>
-      <c r="B355" s="10" t="s">
+      <c r="A355" s="34"/>
+      <c r="B355" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C355" s="10" t="s">
-        <v>816</v>
+      <c r="C355" s="9" t="s">
+        <v>815</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>585</v>
@@ -29945,11 +29908,11 @@
       </c>
     </row>
     <row r="356" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356" s="36"/>
-      <c r="B356" s="10" t="s">
+      <c r="A356" s="34"/>
+      <c r="B356" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C356" s="10" t="s">
+      <c r="C356" s="9" t="s">
         <v>162</v>
       </c>
       <c r="D356" s="2" t="s">
@@ -29989,14 +29952,14 @@
       </c>
     </row>
     <row r="357" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="37"/>
-      <c r="B357" s="14" t="s">
+      <c r="A357" s="35"/>
+      <c r="B357" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="C357" s="14" t="s">
+      <c r="C357" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="D357" s="12" t="s">
+      <c r="D357" s="11" t="s">
         <v>583</v>
       </c>
       <c r="E357" s="6" t="e" cm="1">
